--- a/OneDrive_2024-07-30/Clase 5/Clase 5 - 4. Funciones Texto.xlsx
+++ b/OneDrive_2024-07-30/Clase 5/Clase 5 - 4. Funciones Texto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B09S309est\Downloads\OneDrive_2024-07-30\Clase 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B09S309est\SC-ejercicios\OneDrive_2024-07-30\Clase 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4EA6C6-BEF5-450A-A241-35CA7AF0418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDEB1A-126C-4FF8-B136-04D8D87FFBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concatenar" sheetId="15" r:id="rId1"/>
@@ -833,12 +833,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,6 +850,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
+      </c>
+      <c r="D3">
+        <f>LEN(A3)</f>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>63</v>
@@ -864,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,15 +897,51 @@
       <c r="A3" t="s">
         <v>79</v>
       </c>
+      <c r="C3">
+        <f>FIND("-",A3)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LEFT(A3,C3-1)</f>
+        <v>3413</v>
+      </c>
+      <c r="E3" t="str">
+        <f>RIGHT(A3,LEN(A3)-C3)</f>
+        <v>KABPT</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C5" si="0">FIND("-",A4)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D5" si="1">LEFT(A4,C4-1)</f>
+        <v>874</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E5" si="2">RIGHT(A4,LEN(A4)-C4)</f>
+        <v>KU</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>PFNAIFBA</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1173,7 @@
         <v>BBB</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D11" si="1">RIGHT(A5,5)</f>
+        <f t="shared" ref="D5:D6" si="1">RIGHT(A5,5)</f>
         <v>49224</v>
       </c>
     </row>
@@ -1215,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,20 +1284,68 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
+      <c r="D4" t="str">
+        <f>TRIM(A4)</f>
+        <v>AAA-45533</v>
+      </c>
+      <c r="F4" t="str">
+        <f>LEFT(TRIM(A4),3)</f>
+        <v>AAA</v>
+      </c>
+      <c r="G4" t="str">
+        <f>RIGHT(TRIM(A4),5)</f>
+        <v>45533</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D7" si="0">TRIM(A5)</f>
+        <v>BBB-49224</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F7" si="1">LEFT(TRIM(A5),3)</f>
+        <v>BBB</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G7" si="2">RIGHT(TRIM(A5),5)</f>
+        <v>49224</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>VCD-43444</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>VCD</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>43444</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>fCD-43444</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>fCD</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>43444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,7 +1368,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,20 +1394,36 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="str">
+        <f>SUBSTITUTE(A4,"DD","KKK")</f>
+        <v>ABCF-KKK-3698</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C7" si="0">SUBSTITUTE(A5,"DD","KKK")</f>
+        <v>DN34-KKK-3697</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>TYCF-KKK-8343</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>DN34-KKK-8434</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1436,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,13 +1462,19 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="str">
+        <f>REPLACE(A4,1,4,"BBBB")</f>
+        <v>BBBB2136</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="str">
+        <f>REPLACE(A5,1,4,"BBBB")</f>
+        <v>BBBB6532</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1383,20 +1493,36 @@
       <c r="A10" t="s">
         <v>46</v>
       </c>
+      <c r="C10" t="str">
+        <f>REPLACE(A10,6,2,"KKK")</f>
+        <v>ABCF-KKK-3698</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C13" si="0">REPLACE(A11,6,2,"KKK")</f>
+        <v>DN34-KKK-3697</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>TYCF-KKK-8343</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>DN34-KKK-8434</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1535,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,21 +1561,37 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
+      <c r="C4" t="str">
+        <f>MID(A4,6,2)</f>
+        <v>AD</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C7" si="0">MID(A5,6,2)</f>
+        <v>DF</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>RD</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>TD</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1468,10 +1610,18 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" t="str">
+        <f>MID(A14,6,1)&amp;MID(A14,8,1)</f>
+        <v>DD</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
+      </c>
+      <c r="C15" t="str">
+        <f>MID(A15,6,1)&amp;MID(A15,8,1)</f>
+        <v>DD</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1634,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,15 +1661,39 @@
         <f ca="1">TODAY()</f>
         <v>45503</v>
       </c>
+      <c r="C4" t="str">
+        <f ca="1">TEXT(A4,"dddd")</f>
+        <v>martes</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">TEXT(A4,"mmmm")</f>
+        <v>julio</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C6" si="0">TEXT(A5,"dddd")</f>
+        <v>sábado</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D6" si="1">TEXT(A5,"mmmm")</f>
+        <v>diciembre</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40321</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>domingo</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>mayo</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1706,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,42 +1732,60 @@
         <f>"$ 12000"</f>
         <v>$ 12000</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <f>VALUE(A4)</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f>"$ 12000"</f>
         <v>$ 12000</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D9" si="0">VALUE(A5)</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>"$ 15000"</f>
         <v>$ 15000</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>"$ 17000"</f>
         <v>$ 17000</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>"$ 12500"</f>
         <v>$ 12500</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>"$ 17800"</f>
         <v>$ 17800</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>17800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,26 +1794,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0e7f2196-b398-4523-aaed-99bf068a9844" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDD0C35C945A7F48B0604238962B2A0B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b52dfb2f1ec88447453918981c43201b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b" xmlns:ns3="0e7f2196-b398-4523-aaed-99bf068a9844" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d561fcf29461ff5909f260967846a536" ns2:_="" ns3:_="">
     <xsd:import namespace="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b"/>
@@ -1822,26 +1994,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D357AA-3487-4F15-AAEB-47EBB17CAB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0e7f2196-b398-4523-aaed-99bf068a9844"/>
-    <ds:schemaRef ds:uri="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7FD570-B5E0-4256-BF93-22AC0ADB051D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0e7f2196-b398-4523-aaed-99bf068a9844" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C415F362-8318-45EC-88C9-C7BC740B2213}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1858,4 +2031,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7FD570-B5E0-4256-BF93-22AC0ADB051D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D357AA-3487-4F15-AAEB-47EBB17CAB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e7f2196-b398-4523-aaed-99bf068a9844"/>
+    <ds:schemaRef ds:uri="28a3cbfb-324f-42b3-a55b-47b8bc2a3a4b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>